--- a/simple sim endog cb inflation expectations.xlsx
+++ b/simple sim endog cb inflation expectations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d12817add44a0cbc/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d12817add44a0cbc/Desktop/Python Projects/CORE stuff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{1BC05AED-529D-448E-989E-5F46BAB69598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FC04024-FF92-4220-906F-3AB8D1F21857}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{1BC05AED-529D-448E-989E-5F46BAB69598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97617A0F-5B72-43C7-9870-1C142F8EFD5D}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -502,24 +502,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -540,7 +534,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -621,10 +615,10 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -878,43 +872,43 @@
                   <c:v>4.7619047619047672E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.1428571428571397E-2</c:v>
+                  <c:v>8.333333333333337E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.7857142857142838E-2</c:v>
+                  <c:v>7.7976190476190421E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.6964285714285698E-2</c:v>
+                  <c:v>7.6636904761904767E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.6741071428571441E-2</c:v>
+                  <c:v>7.6302083333333326E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.6685267857142905E-2</c:v>
+                  <c:v>7.6218377976190466E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.6671316964285743E-2</c:v>
+                  <c:v>7.6197451636904723E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.6667829241071397E-2</c:v>
+                  <c:v>7.619222005208337E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.6666957310267838E-2</c:v>
+                  <c:v>7.6190912155877921E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.6666739327566948E-2</c:v>
+                  <c:v>7.6190585181826642E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.6666684831891754E-2</c:v>
+                  <c:v>7.6190503438313795E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.6666671207972983E-2</c:v>
+                  <c:v>7.6190483002435583E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.6666667801993262E-2</c:v>
+                  <c:v>7.6190477893466002E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.6666666950498277E-2</c:v>
+                  <c:v>7.619047661622369E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1325,49 +1319,49 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5</c:v>
+                  <c:v>2.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.125</c:v>
+                  <c:v>2.1875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.03125</c:v>
+                  <c:v>2.046875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0078125</c:v>
+                  <c:v>2.01171875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.001953125</c:v>
+                  <c:v>2.0029296875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.00048828125</c:v>
+                  <c:v>2.000732421875</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0001220703125</c:v>
+                  <c:v>2.00018310546875</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.000030517578125</c:v>
+                  <c:v>2.0000457763671875</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.0000076293945313</c:v>
+                  <c:v>2.0000114440917969</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.0000019073486328</c:v>
+                  <c:v>2.0000028610229492</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0000004768371582</c:v>
+                  <c:v>2.0000007152557373</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.0000001192092896</c:v>
+                  <c:v>2.0000001788139343</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.0000000298023224</c:v>
+                  <c:v>2.0000000447034836</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.0000000074505806</c:v>
+                  <c:v>2.0000000111758709</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1781,46 +1775,46 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97.5</c:v>
+                  <c:v>96.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>97.875</c:v>
+                  <c:v>96.8125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>97.96875</c:v>
+                  <c:v>96.953125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>97.9921875</c:v>
+                  <c:v>96.98828125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>97.998046875</c:v>
+                  <c:v>96.9970703125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>97.99951171875</c:v>
+                  <c:v>96.999267578125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>97.9998779296875</c:v>
+                  <c:v>96.99981689453125</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>97.999969482421875</c:v>
+                  <c:v>96.999954223632813</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>97.999992370605469</c:v>
+                  <c:v>96.999988555908203</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>97.999998092651367</c:v>
+                  <c:v>96.999997138977051</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>97.999999523162842</c:v>
+                  <c:v>96.999999284744263</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>97.99999988079071</c:v>
+                  <c:v>96.999999821186066</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>97.999999970197678</c:v>
+                  <c:v>96.999999955296516</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>97.999999992549419</c:v>
+                  <c:v>96.999999988824129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4157,254 +4151,252 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125" style="6"/>
-    <col min="2" max="2" width="11.453125" style="5"/>
-    <col min="3" max="3" width="11.453125" style="31"/>
-    <col min="4" max="6" width="11.453125" style="43"/>
-    <col min="7" max="7" width="11.54296875" style="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" style="43" customWidth="1"/>
-    <col min="9" max="9" width="11.453125" style="43"/>
-    <col min="10" max="10" width="11.453125" style="5"/>
-    <col min="11" max="11" width="11.453125" style="47"/>
-    <col min="12" max="12" width="24.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.453125" style="5" customWidth="1"/>
-    <col min="14" max="14" width="17.1796875" style="5" customWidth="1"/>
-    <col min="15" max="16384" width="11.453125" style="5"/>
+    <col min="1" max="2" width="11.453125" style="4"/>
+    <col min="3" max="3" width="11.453125" style="29"/>
+    <col min="4" max="6" width="11.453125" style="41"/>
+    <col min="7" max="7" width="11.54296875" style="41" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" style="41" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" style="41"/>
+    <col min="10" max="10" width="11.453125" style="4"/>
+    <col min="11" max="11" width="11.453125" style="45"/>
+    <col min="12" max="12" width="24.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.453125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="17.1796875" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="11.453125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:14" s="5" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="15">
+      <c r="M1" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="13.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="8">
         <v>100</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="31">
         <f t="shared" ref="C2:C31" si="0">1-(B2/$M$6)/$M$5</f>
         <v>4.7619047619047672E-2</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="36">
         <v>100</v>
       </c>
-      <c r="E2" s="38">
+      <c r="E2" s="36">
         <f>PiT</f>
         <v>2</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="36">
         <v>2</v>
       </c>
-      <c r="G2" s="38">
+      <c r="G2" s="36">
         <f t="shared" ref="G2:G31" si="1">(J3-B3)/a</f>
         <v>1</v>
       </c>
-      <c r="H2" s="38">
+      <c r="H2" s="36">
         <f>G2</f>
         <v>1</v>
       </c>
-      <c r="I2" s="38">
+      <c r="I2" s="36">
         <f t="shared" ref="I2:I31" si="2">H2+((alfa*beta)/(a*(1+(alfa^2)*beta))*(F3-PiT))</f>
         <v>1</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="8">
         <v>101</v>
       </c>
-      <c r="K2" s="45">
+      <c r="K2" s="43">
         <f>1-(D2/$M$6)/$M$5</f>
         <v>4.7619047619047672E-2</v>
       </c>
-      <c r="L2" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="17">
+      <c r="L2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="15">
         <v>1</v>
       </c>
-      <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="13" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="8">
         <v>100</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="31">
         <f t="shared" si="0"/>
         <v>4.7619047619047672E-2</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="37">
         <f t="shared" ref="D3:D31" si="3">J3-a*I2</f>
         <v>100</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="37">
         <f t="shared" ref="E3:E31" si="4">F3+alfa*(D3-B3)</f>
         <v>2</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="37">
         <f>E2</f>
         <v>2</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="36">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H3" s="38">
+      <c r="H3" s="36">
         <f t="shared" ref="H3:H4" si="5">G3</f>
         <v>1</v>
       </c>
-      <c r="I3" s="38">
+      <c r="I3" s="36">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="8">
         <v>101</v>
       </c>
-      <c r="K3" s="45">
+      <c r="K3" s="43">
         <f t="shared" ref="K3:K31" si="6">1-(D3/$M$6)/$M$5</f>
         <v>4.7619047619047672E-2</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="13" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>100</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="31">
         <f t="shared" si="0"/>
         <v>4.7619047619047672E-2</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="37">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="37">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="37">
         <f t="shared" ref="F4:F31" si="7">E3</f>
         <v>2</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="36">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="36">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I4" s="38">
+      <c r="I4" s="36">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="8">
         <v>101</v>
       </c>
-      <c r="K4" s="45">
+      <c r="K4" s="43">
         <f t="shared" si="6"/>
         <v>4.7619047619047672E-2</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="13" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
         <v>100</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="31">
         <f t="shared" si="0"/>
         <v>4.7619047619047672E-2</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="37">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="37">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="37">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="36">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H5" s="38">
+      <c r="H5" s="36">
         <f>G4</f>
         <v>1</v>
       </c>
-      <c r="I5" s="38">
+      <c r="I5" s="36">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="8">
         <v>101</v>
       </c>
-      <c r="K5" s="45">
+      <c r="K5" s="43">
         <f t="shared" si="6"/>
         <v>4.7619047619047672E-2</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="17">
         <v>105</v>
       </c>
     </row>
@@ -4412,49 +4404,49 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="11">
         <f>100*(1+M7)</f>
         <v>97</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="32">
         <f t="shared" si="0"/>
         <v>7.6190476190476142E-2</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="38">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="38">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="38">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="39">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H6" s="41">
+      <c r="H6" s="39">
         <f>$H$5</f>
         <v>1</v>
       </c>
-      <c r="I6" s="41">
+      <c r="I6" s="39">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
       <c r="J6" s="3">
         <v>101</v>
       </c>
-      <c r="K6" s="49">
+      <c r="K6" s="47">
         <f t="shared" si="6"/>
         <v>4.7619047619047672E-2</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="L6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="17">
         <v>1</v>
       </c>
     </row>
@@ -4466,45 +4458,45 @@
         <f>B6</f>
         <v>97</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="32">
         <f t="shared" si="0"/>
         <v>7.6190476190476142E-2</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="38">
         <f t="shared" si="3"/>
         <v>98.5</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="38">
         <f t="shared" si="4"/>
         <v>6.5</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="38">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="G7" s="41">
+      <c r="G7" s="39">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H7" s="41">
+      <c r="H7" s="39">
         <f t="shared" ref="H7:H31" si="8">$H$5</f>
         <v>1</v>
       </c>
-      <c r="I7" s="41">
+      <c r="I7" s="39">
         <f t="shared" si="2"/>
         <v>3.25</v>
       </c>
       <c r="J7" s="3">
         <v>101</v>
       </c>
-      <c r="K7" s="49">
+      <c r="K7" s="47">
         <f t="shared" si="6"/>
         <v>6.1904761904761907E-2</v>
       </c>
-      <c r="L7" s="28" t="s">
+      <c r="L7" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="29">
+      <c r="M7" s="27">
         <v>-0.03</v>
       </c>
     </row>
@@ -4516,38 +4508,38 @@
         <f t="shared" ref="B8:B31" si="9">B7</f>
         <v>97</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="32">
         <f t="shared" si="0"/>
         <v>7.6190476190476142E-2</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="38">
         <f t="shared" si="3"/>
         <v>97.75</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="38">
         <f t="shared" si="4"/>
         <v>7.25</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="38">
         <f t="shared" si="7"/>
         <v>6.5</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="39">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H8" s="41">
+      <c r="H8" s="39">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I8" s="41">
+      <c r="I8" s="39">
         <f t="shared" si="2"/>
         <v>3.625</v>
       </c>
       <c r="J8" s="3">
         <v>101</v>
       </c>
-      <c r="K8" s="49">
+      <c r="K8" s="47">
         <f t="shared" si="6"/>
         <v>6.9047619047619024E-2</v>
       </c>
@@ -4560,38 +4552,38 @@
         <f t="shared" si="9"/>
         <v>97</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="32">
         <f t="shared" si="0"/>
         <v>7.6190476190476142E-2</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D9" s="38">
         <f t="shared" si="3"/>
         <v>97.375</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="38">
         <f t="shared" si="4"/>
         <v>7.625</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="38">
         <f t="shared" si="7"/>
         <v>7.25</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="39">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="39">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I9" s="41">
+      <c r="I9" s="39">
         <f t="shared" si="2"/>
         <v>3.8125</v>
       </c>
       <c r="J9" s="3">
         <v>101</v>
       </c>
-      <c r="K9" s="49">
+      <c r="K9" s="47">
         <f t="shared" si="6"/>
         <v>7.2619047619047583E-2</v>
       </c>
@@ -4604,38 +4596,38 @@
         <f t="shared" si="9"/>
         <v>97</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="32">
         <f t="shared" si="0"/>
         <v>7.6190476190476142E-2</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="38">
         <f t="shared" si="3"/>
         <v>97.1875</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="38">
         <f t="shared" si="4"/>
         <v>7.8125</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="38">
         <f t="shared" si="7"/>
         <v>7.625</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="39">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="39">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="39">
         <f t="shared" si="2"/>
         <v>3.90625</v>
       </c>
       <c r="J10" s="3">
         <v>101</v>
       </c>
-      <c r="K10" s="49">
+      <c r="K10" s="47">
         <f t="shared" si="6"/>
         <v>7.4404761904761862E-2</v>
       </c>
@@ -4648,38 +4640,38 @@
         <f t="shared" si="9"/>
         <v>97</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="32">
         <f t="shared" si="0"/>
         <v>7.6190476190476142E-2</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="38">
         <f t="shared" si="3"/>
         <v>97.09375</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="38">
         <f t="shared" si="4"/>
         <v>7.90625</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="38">
         <f t="shared" si="7"/>
         <v>7.8125</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="39">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H11" s="41">
+      <c r="H11" s="39">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I11" s="41">
+      <c r="I11" s="39">
         <f t="shared" si="2"/>
         <v>3.953125</v>
       </c>
       <c r="J11" s="3">
         <v>101</v>
       </c>
-      <c r="K11" s="49">
+      <c r="K11" s="47">
         <f t="shared" si="6"/>
         <v>7.5297619047619002E-2</v>
       </c>
@@ -4692,38 +4684,38 @@
         <f t="shared" si="9"/>
         <v>97</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="32">
         <f t="shared" si="0"/>
         <v>7.6190476190476142E-2</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="38">
         <f t="shared" si="3"/>
         <v>97.046875</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="38">
         <f t="shared" si="4"/>
         <v>7.953125</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="38">
         <f t="shared" si="7"/>
         <v>7.90625</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="39">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H12" s="41">
+      <c r="H12" s="39">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I12" s="41">
+      <c r="I12" s="39">
         <f t="shared" si="2"/>
         <v>3.9765625</v>
       </c>
       <c r="J12" s="3">
         <v>101</v>
       </c>
-      <c r="K12" s="49">
+      <c r="K12" s="47">
         <f t="shared" si="6"/>
         <v>7.5744047619047628E-2</v>
       </c>
@@ -4736,38 +4728,38 @@
         <f t="shared" si="9"/>
         <v>97</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="32">
         <f t="shared" si="0"/>
         <v>7.6190476190476142E-2</v>
       </c>
-      <c r="D13" s="40">
+      <c r="D13" s="38">
         <f t="shared" si="3"/>
         <v>97.0234375</v>
       </c>
-      <c r="E13" s="40">
+      <c r="E13" s="38">
         <f t="shared" si="4"/>
         <v>7.9765625</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F13" s="38">
         <f t="shared" si="7"/>
         <v>7.953125</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="39">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H13" s="41">
+      <c r="H13" s="39">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I13" s="41">
+      <c r="I13" s="39">
         <f t="shared" si="2"/>
         <v>3.98828125</v>
       </c>
       <c r="J13" s="3">
         <v>101</v>
       </c>
-      <c r="K13" s="49">
+      <c r="K13" s="47">
         <f t="shared" si="6"/>
         <v>7.5967261904761885E-2</v>
       </c>
@@ -4780,38 +4772,38 @@
         <f t="shared" si="9"/>
         <v>97</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="32">
         <f t="shared" si="0"/>
         <v>7.6190476190476142E-2</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="38">
         <f t="shared" si="3"/>
         <v>97.01171875</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="38">
         <f t="shared" si="4"/>
         <v>7.98828125</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="38">
         <f t="shared" si="7"/>
         <v>7.9765625</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="39">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H14" s="41">
+      <c r="H14" s="39">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I14" s="41">
+      <c r="I14" s="39">
         <f t="shared" si="2"/>
         <v>3.994140625</v>
       </c>
       <c r="J14" s="3">
         <v>101</v>
       </c>
-      <c r="K14" s="49">
+      <c r="K14" s="47">
         <f t="shared" si="6"/>
         <v>7.6078869047619069E-2</v>
       </c>
@@ -4824,43 +4816,43 @@
         <f t="shared" si="9"/>
         <v>97</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="32">
         <f t="shared" si="0"/>
         <v>7.6190476190476142E-2</v>
       </c>
-      <c r="D15" s="40">
+      <c r="D15" s="38">
         <f t="shared" si="3"/>
         <v>97.005859375</v>
       </c>
-      <c r="E15" s="40">
+      <c r="E15" s="38">
         <f t="shared" si="4"/>
         <v>7.994140625</v>
       </c>
-      <c r="F15" s="40">
+      <c r="F15" s="38">
         <f t="shared" si="7"/>
         <v>7.98828125</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="39">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H15" s="41">
+      <c r="H15" s="39">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I15" s="41">
+      <c r="I15" s="39">
         <f t="shared" si="2"/>
         <v>3.9970703125</v>
       </c>
       <c r="J15" s="3">
         <v>101</v>
       </c>
-      <c r="K15" s="49">
+      <c r="K15" s="47">
         <f t="shared" si="6"/>
         <v>7.6134672619047605E-2</v>
       </c>
-      <c r="M15" s="20"/>
-      <c r="N15" s="21" t="s">
+      <c r="M15" s="18"/>
+      <c r="N15" s="19" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4872,43 +4864,43 @@
         <f t="shared" si="9"/>
         <v>97</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="32">
         <f t="shared" si="0"/>
         <v>7.6190476190476142E-2</v>
       </c>
-      <c r="D16" s="40">
+      <c r="D16" s="38">
         <f t="shared" si="3"/>
         <v>97.0029296875</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="38">
         <f t="shared" si="4"/>
         <v>7.9970703125</v>
       </c>
-      <c r="F16" s="40">
+      <c r="F16" s="38">
         <f t="shared" si="7"/>
         <v>7.994140625</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="39">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H16" s="41">
+      <c r="H16" s="39">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I16" s="41">
+      <c r="I16" s="39">
         <f t="shared" si="2"/>
         <v>3.99853515625</v>
       </c>
       <c r="J16" s="3">
         <v>101</v>
       </c>
-      <c r="K16" s="49">
+      <c r="K16" s="47">
         <f t="shared" si="6"/>
         <v>7.6162574404761929E-2</v>
       </c>
-      <c r="M16" s="22"/>
-      <c r="N16" s="21" t="s">
+      <c r="M16" s="20"/>
+      <c r="N16" s="19" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4920,43 +4912,43 @@
         <f t="shared" si="9"/>
         <v>97</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C17" s="32">
         <f t="shared" si="0"/>
         <v>7.6190476190476142E-2</v>
       </c>
-      <c r="D17" s="40">
+      <c r="D17" s="38">
         <f t="shared" si="3"/>
         <v>97.00146484375</v>
       </c>
-      <c r="E17" s="40">
+      <c r="E17" s="38">
         <f t="shared" si="4"/>
         <v>7.99853515625</v>
       </c>
-      <c r="F17" s="40">
+      <c r="F17" s="38">
         <f t="shared" si="7"/>
         <v>7.9970703125</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17" s="39">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H17" s="41">
+      <c r="H17" s="39">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I17" s="41">
+      <c r="I17" s="39">
         <f t="shared" si="2"/>
         <v>3.999267578125</v>
       </c>
       <c r="J17" s="3">
         <v>101</v>
       </c>
-      <c r="K17" s="49">
+      <c r="K17" s="47">
         <f t="shared" si="6"/>
         <v>7.6176525297619091E-2</v>
       </c>
-      <c r="M17" s="12"/>
-      <c r="N17" s="21" t="s">
+      <c r="M17" s="10"/>
+      <c r="N17" s="19" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4968,43 +4960,43 @@
         <f t="shared" si="9"/>
         <v>97</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="32">
         <f t="shared" si="0"/>
         <v>7.6190476190476142E-2</v>
       </c>
-      <c r="D18" s="40">
+      <c r="D18" s="38">
         <f t="shared" si="3"/>
         <v>97.000732421875</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="38">
         <f t="shared" si="4"/>
         <v>7.999267578125</v>
       </c>
-      <c r="F18" s="40">
+      <c r="F18" s="38">
         <f t="shared" si="7"/>
         <v>7.99853515625</v>
       </c>
-      <c r="G18" s="41">
+      <c r="G18" s="39">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H18" s="41">
+      <c r="H18" s="39">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I18" s="41">
+      <c r="I18" s="39">
         <f t="shared" si="2"/>
         <v>3.9996337890625</v>
       </c>
       <c r="J18" s="3">
         <v>101</v>
       </c>
-      <c r="K18" s="49">
+      <c r="K18" s="47">
         <f t="shared" si="6"/>
         <v>7.6183500744047672E-2</v>
       </c>
-      <c r="M18" s="8"/>
-      <c r="N18" s="21" t="s">
+      <c r="M18" s="6"/>
+      <c r="N18" s="19" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5016,43 +5008,43 @@
         <f t="shared" si="9"/>
         <v>97</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C19" s="32">
         <f t="shared" si="0"/>
         <v>7.6190476190476142E-2</v>
       </c>
-      <c r="D19" s="40">
+      <c r="D19" s="38">
         <f t="shared" si="3"/>
         <v>97.0003662109375</v>
       </c>
-      <c r="E19" s="40">
+      <c r="E19" s="38">
         <f t="shared" si="4"/>
         <v>7.9996337890625</v>
       </c>
-      <c r="F19" s="40">
+      <c r="F19" s="38">
         <f t="shared" si="7"/>
         <v>7.999267578125</v>
       </c>
-      <c r="G19" s="41">
+      <c r="G19" s="39">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H19" s="41">
+      <c r="H19" s="39">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I19" s="41">
+      <c r="I19" s="39">
         <f t="shared" si="2"/>
         <v>3.99981689453125</v>
       </c>
       <c r="J19" s="3">
         <v>101</v>
       </c>
-      <c r="K19" s="49">
+      <c r="K19" s="47">
         <f t="shared" si="6"/>
         <v>7.6186988467261907E-2</v>
       </c>
-      <c r="M19" s="24"/>
-      <c r="N19" s="21" t="s">
+      <c r="M19" s="22"/>
+      <c r="N19" s="19" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5064,42 +5056,42 @@
         <f t="shared" si="9"/>
         <v>97</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C20" s="32">
         <f t="shared" si="0"/>
         <v>7.6190476190476142E-2</v>
       </c>
-      <c r="D20" s="40">
+      <c r="D20" s="38">
         <f t="shared" si="3"/>
         <v>97.00018310546875</v>
       </c>
-      <c r="E20" s="40">
+      <c r="E20" s="38">
         <f t="shared" si="4"/>
         <v>7.99981689453125</v>
       </c>
-      <c r="F20" s="40">
+      <c r="F20" s="38">
         <f t="shared" si="7"/>
         <v>7.9996337890625</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="39">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H20" s="41">
+      <c r="H20" s="39">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I20" s="41">
+      <c r="I20" s="39">
         <f t="shared" si="2"/>
         <v>3.999908447265625</v>
       </c>
       <c r="J20" s="3">
         <v>101</v>
       </c>
-      <c r="K20" s="49">
+      <c r="K20" s="47">
         <f t="shared" si="6"/>
         <v>7.6188732328869024E-2</v>
       </c>
-      <c r="M20" s="35"/>
+      <c r="M20" s="33"/>
     </row>
     <row r="21" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -5109,42 +5101,42 @@
         <f t="shared" si="9"/>
         <v>97</v>
       </c>
-      <c r="C21" s="34">
+      <c r="C21" s="32">
         <f t="shared" si="0"/>
         <v>7.6190476190476142E-2</v>
       </c>
-      <c r="D21" s="40">
+      <c r="D21" s="38">
         <f t="shared" si="3"/>
         <v>97.000091552734375</v>
       </c>
-      <c r="E21" s="40">
+      <c r="E21" s="38">
         <f t="shared" si="4"/>
         <v>7.999908447265625</v>
       </c>
-      <c r="F21" s="40">
+      <c r="F21" s="38">
         <f t="shared" si="7"/>
         <v>7.99981689453125</v>
       </c>
-      <c r="G21" s="41">
+      <c r="G21" s="39">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H21" s="41">
+      <c r="H21" s="39">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I21" s="41">
+      <c r="I21" s="39">
         <f t="shared" si="2"/>
         <v>3.9999542236328125</v>
       </c>
       <c r="J21" s="3">
         <v>101</v>
       </c>
-      <c r="K21" s="49">
+      <c r="K21" s="47">
         <f t="shared" si="6"/>
         <v>7.6189604259672583E-2</v>
       </c>
-      <c r="M21" s="48"/>
+      <c r="M21" s="46"/>
     </row>
     <row r="22" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -5154,38 +5146,38 @@
         <f t="shared" si="9"/>
         <v>97</v>
       </c>
-      <c r="C22" s="34">
+      <c r="C22" s="32">
         <f t="shared" si="0"/>
         <v>7.6190476190476142E-2</v>
       </c>
-      <c r="D22" s="40">
+      <c r="D22" s="38">
         <f t="shared" si="3"/>
         <v>97.000045776367188</v>
       </c>
-      <c r="E22" s="40">
+      <c r="E22" s="38">
         <f t="shared" si="4"/>
         <v>7.9999542236328125</v>
       </c>
-      <c r="F22" s="40">
+      <c r="F22" s="38">
         <f t="shared" si="7"/>
         <v>7.999908447265625</v>
       </c>
-      <c r="G22" s="41">
+      <c r="G22" s="39">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H22" s="41">
+      <c r="H22" s="39">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I22" s="41">
+      <c r="I22" s="39">
         <f t="shared" si="2"/>
         <v>3.9999771118164063</v>
       </c>
       <c r="J22" s="3">
         <v>101</v>
       </c>
-      <c r="K22" s="49">
+      <c r="K22" s="47">
         <f t="shared" si="6"/>
         <v>7.6190040225074362E-2</v>
       </c>
@@ -5198,38 +5190,38 @@
         <f t="shared" si="9"/>
         <v>97</v>
       </c>
-      <c r="C23" s="34">
+      <c r="C23" s="32">
         <f t="shared" si="0"/>
         <v>7.6190476190476142E-2</v>
       </c>
-      <c r="D23" s="40">
+      <c r="D23" s="38">
         <f t="shared" si="3"/>
         <v>97.000022888183594</v>
       </c>
-      <c r="E23" s="40">
+      <c r="E23" s="38">
         <f t="shared" si="4"/>
         <v>7.9999771118164063</v>
       </c>
-      <c r="F23" s="40">
+      <c r="F23" s="38">
         <f t="shared" si="7"/>
         <v>7.9999542236328125</v>
       </c>
-      <c r="G23" s="41">
+      <c r="G23" s="39">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H23" s="41">
+      <c r="H23" s="39">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I23" s="41">
+      <c r="I23" s="39">
         <f t="shared" si="2"/>
         <v>3.9999885559082031</v>
       </c>
       <c r="J23" s="3">
         <v>101</v>
       </c>
-      <c r="K23" s="49">
+      <c r="K23" s="47">
         <f t="shared" si="6"/>
         <v>7.6190258207775252E-2</v>
       </c>
@@ -5242,38 +5234,38 @@
         <f t="shared" si="9"/>
         <v>97</v>
       </c>
-      <c r="C24" s="34">
+      <c r="C24" s="32">
         <f t="shared" si="0"/>
         <v>7.6190476190476142E-2</v>
       </c>
-      <c r="D24" s="40">
+      <c r="D24" s="38">
         <f t="shared" si="3"/>
         <v>97.000011444091797</v>
       </c>
-      <c r="E24" s="40">
+      <c r="E24" s="38">
         <f t="shared" si="4"/>
         <v>7.9999885559082031</v>
       </c>
-      <c r="F24" s="40">
+      <c r="F24" s="38">
         <f t="shared" si="7"/>
         <v>7.9999771118164063</v>
       </c>
-      <c r="G24" s="41">
+      <c r="G24" s="39">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H24" s="41">
+      <c r="H24" s="39">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I24" s="41">
+      <c r="I24" s="39">
         <f t="shared" si="2"/>
         <v>3.9999942779541016</v>
       </c>
       <c r="J24" s="3">
         <v>101</v>
       </c>
-      <c r="K24" s="49">
+      <c r="K24" s="47">
         <f t="shared" si="6"/>
         <v>7.6190367199125753E-2</v>
       </c>
@@ -5286,38 +5278,38 @@
         <f t="shared" si="9"/>
         <v>97</v>
       </c>
-      <c r="C25" s="34">
+      <c r="C25" s="32">
         <f t="shared" si="0"/>
         <v>7.6190476190476142E-2</v>
       </c>
-      <c r="D25" s="40">
+      <c r="D25" s="38">
         <f t="shared" si="3"/>
         <v>97.000005722045898</v>
       </c>
-      <c r="E25" s="40">
+      <c r="E25" s="38">
         <f t="shared" si="4"/>
         <v>7.9999942779541016</v>
       </c>
-      <c r="F25" s="40">
+      <c r="F25" s="38">
         <f t="shared" si="7"/>
         <v>7.9999885559082031</v>
       </c>
-      <c r="G25" s="41">
+      <c r="G25" s="39">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H25" s="41">
+      <c r="H25" s="39">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I25" s="41">
+      <c r="I25" s="39">
         <f t="shared" si="2"/>
         <v>3.9999971389770508</v>
       </c>
       <c r="J25" s="3">
         <v>101</v>
       </c>
-      <c r="K25" s="49">
+      <c r="K25" s="47">
         <f t="shared" si="6"/>
         <v>7.6190421694800947E-2</v>
       </c>
@@ -5330,38 +5322,38 @@
         <f t="shared" si="9"/>
         <v>97</v>
       </c>
-      <c r="C26" s="34">
+      <c r="C26" s="32">
         <f t="shared" si="0"/>
         <v>7.6190476190476142E-2</v>
       </c>
-      <c r="D26" s="40">
+      <c r="D26" s="38">
         <f t="shared" si="3"/>
         <v>97.000002861022949</v>
       </c>
-      <c r="E26" s="40">
+      <c r="E26" s="38">
         <f t="shared" si="4"/>
         <v>7.9999971389770508</v>
       </c>
-      <c r="F26" s="40">
+      <c r="F26" s="38">
         <f t="shared" si="7"/>
         <v>7.9999942779541016</v>
       </c>
-      <c r="G26" s="41">
+      <c r="G26" s="39">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H26" s="41">
+      <c r="H26" s="39">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I26" s="41">
+      <c r="I26" s="39">
         <f t="shared" si="2"/>
         <v>3.9999985694885254</v>
       </c>
       <c r="J26" s="3">
         <v>101</v>
       </c>
-      <c r="K26" s="49">
+      <c r="K26" s="47">
         <f t="shared" si="6"/>
         <v>7.61904489426386E-2</v>
       </c>
@@ -5374,38 +5366,38 @@
         <f t="shared" si="9"/>
         <v>97</v>
       </c>
-      <c r="C27" s="34">
+      <c r="C27" s="32">
         <f t="shared" si="0"/>
         <v>7.6190476190476142E-2</v>
       </c>
-      <c r="D27" s="40">
+      <c r="D27" s="38">
         <f t="shared" si="3"/>
         <v>97.000001430511475</v>
       </c>
-      <c r="E27" s="40">
+      <c r="E27" s="38">
         <f t="shared" si="4"/>
         <v>7.9999985694885254</v>
       </c>
-      <c r="F27" s="40">
+      <c r="F27" s="38">
         <f t="shared" si="7"/>
         <v>7.9999971389770508</v>
       </c>
-      <c r="G27" s="41">
+      <c r="G27" s="39">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H27" s="41">
+      <c r="H27" s="39">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I27" s="41">
+      <c r="I27" s="39">
         <f t="shared" si="2"/>
         <v>3.9999992847442627</v>
       </c>
       <c r="J27" s="3">
         <v>101</v>
       </c>
-      <c r="K27" s="49">
+      <c r="K27" s="47">
         <f t="shared" si="6"/>
         <v>7.6190462566557371E-2</v>
       </c>
@@ -5418,38 +5410,38 @@
         <f t="shared" si="9"/>
         <v>97</v>
       </c>
-      <c r="C28" s="34">
+      <c r="C28" s="32">
         <f t="shared" si="0"/>
         <v>7.6190476190476142E-2</v>
       </c>
-      <c r="D28" s="40">
+      <c r="D28" s="38">
         <f t="shared" si="3"/>
         <v>97.000000715255737</v>
       </c>
-      <c r="E28" s="40">
+      <c r="E28" s="38">
         <f t="shared" si="4"/>
         <v>7.9999992847442627</v>
       </c>
-      <c r="F28" s="40">
+      <c r="F28" s="38">
         <f t="shared" si="7"/>
         <v>7.9999985694885254</v>
       </c>
-      <c r="G28" s="41">
+      <c r="G28" s="39">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H28" s="41">
+      <c r="H28" s="39">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I28" s="41">
+      <c r="I28" s="39">
         <f t="shared" si="2"/>
         <v>3.9999996423721313</v>
       </c>
       <c r="J28" s="3">
         <v>101</v>
       </c>
-      <c r="K28" s="49">
+      <c r="K28" s="47">
         <f t="shared" si="6"/>
         <v>7.6190469378516812E-2</v>
       </c>
@@ -5462,38 +5454,38 @@
         <f t="shared" si="9"/>
         <v>97</v>
       </c>
-      <c r="C29" s="34">
+      <c r="C29" s="32">
         <f t="shared" si="0"/>
         <v>7.6190476190476142E-2</v>
       </c>
-      <c r="D29" s="40">
+      <c r="D29" s="38">
         <f t="shared" si="3"/>
         <v>97.000000357627869</v>
       </c>
-      <c r="E29" s="40">
+      <c r="E29" s="38">
         <f t="shared" si="4"/>
         <v>7.9999996423721313</v>
       </c>
-      <c r="F29" s="40">
+      <c r="F29" s="38">
         <f t="shared" si="7"/>
         <v>7.9999992847442627</v>
       </c>
-      <c r="G29" s="41">
+      <c r="G29" s="39">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H29" s="41">
+      <c r="H29" s="39">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I29" s="41">
+      <c r="I29" s="39">
         <f t="shared" si="2"/>
         <v>3.9999998211860657</v>
       </c>
       <c r="J29" s="3">
         <v>101</v>
       </c>
-      <c r="K29" s="49">
+      <c r="K29" s="47">
         <f t="shared" si="6"/>
         <v>7.6190472784496532E-2</v>
       </c>
@@ -5506,82 +5498,82 @@
         <f t="shared" si="9"/>
         <v>97</v>
       </c>
-      <c r="C30" s="34">
+      <c r="C30" s="32">
         <f t="shared" si="0"/>
         <v>7.6190476190476142E-2</v>
       </c>
-      <c r="D30" s="40">
+      <c r="D30" s="38">
         <f t="shared" si="3"/>
         <v>97.000000178813934</v>
       </c>
-      <c r="E30" s="40">
+      <c r="E30" s="38">
         <f t="shared" si="4"/>
         <v>7.9999998211860657</v>
       </c>
-      <c r="F30" s="40">
+      <c r="F30" s="38">
         <f t="shared" si="7"/>
         <v>7.9999996423721313</v>
       </c>
-      <c r="G30" s="41">
+      <c r="G30" s="39">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H30" s="41">
+      <c r="H30" s="39">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I30" s="41">
+      <c r="I30" s="39">
         <f t="shared" si="2"/>
         <v>3.9999999105930328</v>
       </c>
       <c r="J30" s="3">
         <v>101</v>
       </c>
-      <c r="K30" s="49">
+      <c r="K30" s="47">
         <f t="shared" si="6"/>
         <v>7.6190474487486393E-2</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="13" x14ac:dyDescent="0.25">
-      <c r="A31" s="23">
+      <c r="A31" s="21">
         <v>30</v>
       </c>
-      <c r="B31" s="24">
+      <c r="B31" s="22">
         <f t="shared" si="9"/>
         <v>97</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="22">
         <f t="shared" si="0"/>
         <v>7.6190476190476142E-2</v>
       </c>
-      <c r="D31" s="42">
+      <c r="D31" s="40">
         <f t="shared" si="3"/>
         <v>97.000000089406967</v>
       </c>
-      <c r="E31" s="42">
+      <c r="E31" s="40">
         <f t="shared" si="4"/>
         <v>7.9999999105930328</v>
       </c>
-      <c r="F31" s="42">
+      <c r="F31" s="40">
         <f t="shared" si="7"/>
         <v>7.9999998211860657</v>
       </c>
-      <c r="G31" s="42">
+      <c r="G31" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H31" s="42">
+      <c r="H31" s="40">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I31" s="42">
+      <c r="I31" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J31" s="30">
+      <c r="J31" s="28">
         <v>101</v>
       </c>
-      <c r="K31" s="46">
+      <c r="K31" s="44">
         <f t="shared" si="6"/>
         <v>7.6190475338981267E-2</v>
       </c>
@@ -5598,259 +5590,257 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125" style="6"/>
-    <col min="2" max="2" width="11.453125" style="5"/>
-    <col min="3" max="3" width="11.453125" style="31"/>
-    <col min="4" max="6" width="11.453125" style="43"/>
-    <col min="7" max="7" width="11.54296875" style="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" style="43" customWidth="1"/>
-    <col min="9" max="9" width="11.453125" style="43"/>
-    <col min="10" max="10" width="11.453125" style="5"/>
-    <col min="11" max="11" width="11.453125" style="47"/>
-    <col min="12" max="12" width="24.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.453125" style="5" customWidth="1"/>
-    <col min="14" max="14" width="17.1796875" style="5" customWidth="1"/>
-    <col min="15" max="16384" width="11.453125" style="5"/>
+    <col min="1" max="2" width="11.453125" style="4"/>
+    <col min="3" max="3" width="11.453125" style="29"/>
+    <col min="4" max="6" width="11.453125" style="41"/>
+    <col min="7" max="7" width="11.54296875" style="41" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" style="41" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" style="41"/>
+    <col min="10" max="10" width="11.453125" style="4"/>
+    <col min="11" max="11" width="11.453125" style="45"/>
+    <col min="12" max="12" width="24.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.453125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="17.1796875" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="11.453125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:14" s="5" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="15">
+      <c r="M1" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="13.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="8">
         <v>100</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="31">
         <f t="shared" ref="C2:C31" si="0">1-(B2/$M$6)/$M$5</f>
         <v>4.7619047619047672E-2</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="36">
         <v>100</v>
       </c>
-      <c r="E2" s="38">
+      <c r="E2" s="36">
         <f>PiT</f>
         <v>2</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="36">
         <v>2</v>
       </c>
-      <c r="G2" s="38">
+      <c r="G2" s="36">
         <f t="shared" ref="G2:G31" si="1">(J3-B3)/a</f>
         <v>1</v>
       </c>
-      <c r="H2" s="38">
+      <c r="H2" s="36">
         <f>G2</f>
         <v>1</v>
       </c>
-      <c r="I2" s="38">
+      <c r="I2" s="36">
         <f t="shared" ref="I2:I31" si="2">H2+((alfa*beta)/(a*(1+(alfa^2)*beta))*(F3-PiT))</f>
         <v>1</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="8">
         <v>101</v>
       </c>
-      <c r="K2" s="45">
+      <c r="K2" s="43">
         <f>1-(D2/$M$6)/$M$5</f>
         <v>4.7619047619047672E-2</v>
       </c>
-      <c r="L2" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="17">
+      <c r="L2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="15">
         <v>1</v>
       </c>
-      <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="13" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="8">
         <v>100</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="31">
         <f t="shared" si="0"/>
         <v>4.7619047619047672E-2</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="37">
         <f t="shared" ref="D3:D31" si="3">J3-a*I2</f>
         <v>100</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="37">
         <f t="shared" ref="E3:E31" si="4">F3+alfa*(D3-B3)</f>
         <v>2</v>
       </c>
-      <c r="F3" s="38">
-        <f>((1-cred) * E2) + (cred * PiT)</f>
+      <c r="F3" s="36">
+        <f t="shared" ref="F3:F30" si="5">((1-cred) * E2) + (cred * PiT)</f>
         <v>2</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="36">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H3" s="38">
-        <f t="shared" ref="H3:H4" si="5">G3</f>
+      <c r="H3" s="36">
+        <f t="shared" ref="H3:H4" si="6">G3</f>
         <v>1</v>
       </c>
-      <c r="I3" s="38">
+      <c r="I3" s="36">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="8">
         <v>101</v>
       </c>
-      <c r="K3" s="45">
-        <f t="shared" ref="K3:K31" si="6">1-(D3/$M$6)/$M$5</f>
+      <c r="K3" s="43">
+        <f t="shared" ref="K3:K31" si="7">1-(D3/$M$6)/$M$5</f>
         <v>4.7619047619047672E-2</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="13" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>100</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="31">
         <f t="shared" si="0"/>
         <v>4.7619047619047672E-2</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="37">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="37">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="F4" s="38">
-        <f>((1-cred) * E3) + (cred * PiT)</f>
+      <c r="F4" s="36">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="36">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H4" s="38">
-        <f t="shared" si="5"/>
+      <c r="H4" s="36">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="I4" s="38">
+      <c r="I4" s="36">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="8">
         <v>101</v>
       </c>
-      <c r="K4" s="45">
-        <f t="shared" si="6"/>
+      <c r="K4" s="43">
+        <f t="shared" si="7"/>
         <v>4.7619047619047672E-2</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="13" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
         <v>100</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="31">
         <f t="shared" si="0"/>
         <v>4.7619047619047672E-2</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="37">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="37">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="F5" s="38">
-        <f>((1-cred) * E4) + (cred * PiT)</f>
+      <c r="F5" s="36">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="36">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H5" s="38">
+        <v>4</v>
+      </c>
+      <c r="H5" s="36">
         <f>G4</f>
         <v>1</v>
       </c>
-      <c r="I5" s="38">
+      <c r="I5" s="36">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="8">
         <v>101</v>
       </c>
-      <c r="K5" s="45">
-        <f t="shared" si="6"/>
+      <c r="K5" s="43">
+        <f t="shared" si="7"/>
         <v>4.7619047619047672E-2</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="17">
         <v>105</v>
       </c>
     </row>
@@ -5858,49 +5848,49 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="11">
         <f>100*(1+M7)</f>
-        <v>98</v>
-      </c>
-      <c r="C6" s="34">
+        <v>97</v>
+      </c>
+      <c r="C6" s="32">
         <f t="shared" si="0"/>
-        <v>6.6666666666666652E-2</v>
-      </c>
-      <c r="D6" s="40">
+        <v>7.6190476190476142E-2</v>
+      </c>
+      <c r="D6" s="38">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="38">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="F6" s="40">
-        <f>((1-cred) * E5) + (cred * PiT)</f>
+        <v>5</v>
+      </c>
+      <c r="F6" s="38">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="39">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H6" s="41">
+        <v>4</v>
+      </c>
+      <c r="H6" s="39">
         <f>G6</f>
-        <v>3</v>
-      </c>
-      <c r="I6" s="41">
+        <v>4</v>
+      </c>
+      <c r="I6" s="39">
         <f t="shared" si="2"/>
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="J6" s="3">
         <v>101</v>
       </c>
-      <c r="K6" s="49">
-        <f t="shared" si="6"/>
+      <c r="K6" s="47">
+        <f t="shared" si="7"/>
         <v>4.7619047619047672E-2</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="L6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="17">
         <v>1</v>
       </c>
     </row>
@@ -5910,48 +5900,48 @@
       </c>
       <c r="B7" s="3">
         <f>B6</f>
-        <v>98</v>
-      </c>
-      <c r="C7" s="34">
+        <v>97</v>
+      </c>
+      <c r="C7" s="32">
         <f t="shared" si="0"/>
-        <v>6.6666666666666652E-2</v>
-      </c>
-      <c r="D7" s="40">
+        <v>7.6190476190476142E-2</v>
+      </c>
+      <c r="D7" s="38">
         <f t="shared" si="3"/>
-        <v>97.5</v>
-      </c>
-      <c r="E7" s="40">
+        <v>96.25</v>
+      </c>
+      <c r="E7" s="38">
         <f t="shared" si="4"/>
-        <v>2.5</v>
-      </c>
-      <c r="F7" s="40">
-        <f>((1-cred) * E6) + (cred * PiT)</f>
-        <v>3</v>
-      </c>
-      <c r="G7" s="41">
+        <v>2.75</v>
+      </c>
+      <c r="F7" s="38">
+        <f t="shared" si="5"/>
+        <v>3.5</v>
+      </c>
+      <c r="G7" s="39">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H7" s="41">
-        <f t="shared" ref="H7:H31" si="7">G7</f>
-        <v>3</v>
-      </c>
-      <c r="I7" s="41">
+        <v>4</v>
+      </c>
+      <c r="H7" s="39">
+        <f t="shared" ref="H7:H31" si="8">G7</f>
+        <v>4</v>
+      </c>
+      <c r="I7" s="39">
         <f t="shared" si="2"/>
-        <v>3.125</v>
+        <v>4.1875</v>
       </c>
       <c r="J7" s="3">
         <v>101</v>
       </c>
-      <c r="K7" s="49">
-        <f t="shared" si="6"/>
-        <v>7.1428571428571397E-2</v>
-      </c>
-      <c r="L7" s="28" t="s">
+      <c r="K7" s="47">
+        <f t="shared" si="7"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="L7" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="29">
-        <v>-0.02</v>
+      <c r="M7" s="27">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="13.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -5959,48 +5949,48 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <f t="shared" ref="B8:B31" si="8">B7</f>
-        <v>98</v>
-      </c>
-      <c r="C8" s="34">
+        <f t="shared" ref="B8:B31" si="9">B7</f>
+        <v>97</v>
+      </c>
+      <c r="C8" s="32">
         <f t="shared" si="0"/>
-        <v>6.6666666666666652E-2</v>
-      </c>
-      <c r="D8" s="40">
+        <v>7.6190476190476142E-2</v>
+      </c>
+      <c r="D8" s="38">
         <f t="shared" si="3"/>
-        <v>97.875</v>
-      </c>
-      <c r="E8" s="40">
+        <v>96.8125</v>
+      </c>
+      <c r="E8" s="38">
         <f t="shared" si="4"/>
-        <v>2.125</v>
-      </c>
-      <c r="F8" s="40">
-        <f>((1-cred) * E7) + (cred * PiT)</f>
-        <v>2.25</v>
-      </c>
-      <c r="G8" s="41">
+        <v>2.1875</v>
+      </c>
+      <c r="F8" s="38">
+        <f t="shared" si="5"/>
+        <v>2.375</v>
+      </c>
+      <c r="G8" s="39">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H8" s="41">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="I8" s="41">
+        <v>4</v>
+      </c>
+      <c r="H8" s="39">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="I8" s="39">
         <f t="shared" si="2"/>
-        <v>3.03125</v>
+        <v>4.046875</v>
       </c>
       <c r="J8" s="3">
         <v>101</v>
       </c>
-      <c r="K8" s="49">
-        <f t="shared" si="6"/>
-        <v>6.7857142857142838E-2</v>
-      </c>
-      <c r="L8" s="50" t="s">
+      <c r="K8" s="47">
+        <f t="shared" si="7"/>
+        <v>7.7976190476190421E-2</v>
+      </c>
+      <c r="L8" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M8" s="17">
         <v>0.5</v>
       </c>
     </row>
@@ -6009,43 +5999,43 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
+        <f t="shared" si="9"/>
+        <v>97</v>
+      </c>
+      <c r="C9" s="32">
+        <f t="shared" si="0"/>
+        <v>7.6190476190476142E-2</v>
+      </c>
+      <c r="D9" s="38">
+        <f t="shared" si="3"/>
+        <v>96.953125</v>
+      </c>
+      <c r="E9" s="38">
+        <f t="shared" si="4"/>
+        <v>2.046875</v>
+      </c>
+      <c r="F9" s="38">
+        <f t="shared" si="5"/>
+        <v>2.09375</v>
+      </c>
+      <c r="G9" s="39">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H9" s="39">
         <f t="shared" si="8"/>
-        <v>98</v>
-      </c>
-      <c r="C9" s="34">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666652E-2</v>
-      </c>
-      <c r="D9" s="40">
-        <f t="shared" si="3"/>
-        <v>97.96875</v>
-      </c>
-      <c r="E9" s="40">
-        <f t="shared" si="4"/>
-        <v>2.03125</v>
-      </c>
-      <c r="F9" s="40">
-        <f>((1-cred) * E8) + (cred * PiT)</f>
-        <v>2.0625</v>
-      </c>
-      <c r="G9" s="41">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H9" s="41">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="I9" s="41">
+        <v>4</v>
+      </c>
+      <c r="I9" s="39">
         <f t="shared" si="2"/>
-        <v>3.0078125</v>
+        <v>4.01171875</v>
       </c>
       <c r="J9" s="3">
         <v>101</v>
       </c>
-      <c r="K9" s="49">
-        <f t="shared" si="6"/>
-        <v>6.6964285714285698E-2</v>
+      <c r="K9" s="47">
+        <f t="shared" si="7"/>
+        <v>7.6636904761904767E-2</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="13" x14ac:dyDescent="0.25">
@@ -6053,43 +6043,43 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
+        <f t="shared" si="9"/>
+        <v>97</v>
+      </c>
+      <c r="C10" s="32">
+        <f t="shared" si="0"/>
+        <v>7.6190476190476142E-2</v>
+      </c>
+      <c r="D10" s="38">
+        <f t="shared" si="3"/>
+        <v>96.98828125</v>
+      </c>
+      <c r="E10" s="38">
+        <f t="shared" si="4"/>
+        <v>2.01171875</v>
+      </c>
+      <c r="F10" s="38">
+        <f t="shared" si="5"/>
+        <v>2.0234375</v>
+      </c>
+      <c r="G10" s="39">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H10" s="39">
         <f t="shared" si="8"/>
-        <v>98</v>
-      </c>
-      <c r="C10" s="34">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666652E-2</v>
-      </c>
-      <c r="D10" s="40">
-        <f t="shared" si="3"/>
-        <v>97.9921875</v>
-      </c>
-      <c r="E10" s="40">
-        <f t="shared" si="4"/>
-        <v>2.0078125</v>
-      </c>
-      <c r="F10" s="40">
-        <f>((1-cred) * E9) + (cred * PiT)</f>
-        <v>2.015625</v>
-      </c>
-      <c r="G10" s="41">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H10" s="41">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="I10" s="41">
+        <v>4</v>
+      </c>
+      <c r="I10" s="39">
         <f t="shared" si="2"/>
-        <v>3.001953125</v>
+        <v>4.0029296875</v>
       </c>
       <c r="J10" s="3">
         <v>101</v>
       </c>
-      <c r="K10" s="49">
-        <f t="shared" si="6"/>
-        <v>6.6741071428571441E-2</v>
+      <c r="K10" s="47">
+        <f t="shared" si="7"/>
+        <v>7.6302083333333326E-2</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="13" x14ac:dyDescent="0.25">
@@ -6097,43 +6087,43 @@
         <v>10</v>
       </c>
       <c r="B11" s="3">
+        <f t="shared" si="9"/>
+        <v>97</v>
+      </c>
+      <c r="C11" s="32">
+        <f t="shared" si="0"/>
+        <v>7.6190476190476142E-2</v>
+      </c>
+      <c r="D11" s="38">
+        <f t="shared" si="3"/>
+        <v>96.9970703125</v>
+      </c>
+      <c r="E11" s="38">
+        <f t="shared" si="4"/>
+        <v>2.0029296875</v>
+      </c>
+      <c r="F11" s="38">
+        <f t="shared" si="5"/>
+        <v>2.005859375</v>
+      </c>
+      <c r="G11" s="39">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H11" s="39">
         <f t="shared" si="8"/>
-        <v>98</v>
-      </c>
-      <c r="C11" s="34">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666652E-2</v>
-      </c>
-      <c r="D11" s="40">
-        <f t="shared" si="3"/>
-        <v>97.998046875</v>
-      </c>
-      <c r="E11" s="40">
-        <f t="shared" si="4"/>
-        <v>2.001953125</v>
-      </c>
-      <c r="F11" s="40">
-        <f>((1-cred) * E10) + (cred * PiT)</f>
-        <v>2.00390625</v>
-      </c>
-      <c r="G11" s="41">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H11" s="41">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="I11" s="41">
+        <v>4</v>
+      </c>
+      <c r="I11" s="39">
         <f t="shared" si="2"/>
-        <v>3.00048828125</v>
+        <v>4.000732421875</v>
       </c>
       <c r="J11" s="3">
         <v>101</v>
       </c>
-      <c r="K11" s="49">
-        <f t="shared" si="6"/>
-        <v>6.6685267857142905E-2</v>
+      <c r="K11" s="47">
+        <f t="shared" si="7"/>
+        <v>7.6218377976190466E-2</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="13" x14ac:dyDescent="0.25">
@@ -6141,43 +6131,43 @@
         <v>11</v>
       </c>
       <c r="B12" s="3">
+        <f t="shared" si="9"/>
+        <v>97</v>
+      </c>
+      <c r="C12" s="32">
+        <f t="shared" si="0"/>
+        <v>7.6190476190476142E-2</v>
+      </c>
+      <c r="D12" s="38">
+        <f t="shared" si="3"/>
+        <v>96.999267578125</v>
+      </c>
+      <c r="E12" s="38">
+        <f t="shared" si="4"/>
+        <v>2.000732421875</v>
+      </c>
+      <c r="F12" s="38">
+        <f t="shared" si="5"/>
+        <v>2.00146484375</v>
+      </c>
+      <c r="G12" s="39">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H12" s="39">
         <f t="shared" si="8"/>
-        <v>98</v>
-      </c>
-      <c r="C12" s="34">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666652E-2</v>
-      </c>
-      <c r="D12" s="40">
-        <f t="shared" si="3"/>
-        <v>97.99951171875</v>
-      </c>
-      <c r="E12" s="40">
-        <f t="shared" si="4"/>
-        <v>2.00048828125</v>
-      </c>
-      <c r="F12" s="40">
-        <f>((1-cred) * E11) + (cred * PiT)</f>
-        <v>2.0009765625</v>
-      </c>
-      <c r="G12" s="41">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H12" s="41">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="I12" s="41">
+        <v>4</v>
+      </c>
+      <c r="I12" s="39">
         <f t="shared" si="2"/>
-        <v>3.0001220703125</v>
+        <v>4.00018310546875</v>
       </c>
       <c r="J12" s="3">
         <v>101</v>
       </c>
-      <c r="K12" s="49">
-        <f t="shared" si="6"/>
-        <v>6.6671316964285743E-2</v>
+      <c r="K12" s="47">
+        <f t="shared" si="7"/>
+        <v>7.6197451636904723E-2</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="13" x14ac:dyDescent="0.25">
@@ -6185,43 +6175,43 @@
         <v>12</v>
       </c>
       <c r="B13" s="3">
+        <f t="shared" si="9"/>
+        <v>97</v>
+      </c>
+      <c r="C13" s="32">
+        <f t="shared" si="0"/>
+        <v>7.6190476190476142E-2</v>
+      </c>
+      <c r="D13" s="38">
+        <f t="shared" si="3"/>
+        <v>96.99981689453125</v>
+      </c>
+      <c r="E13" s="38">
+        <f t="shared" si="4"/>
+        <v>2.00018310546875</v>
+      </c>
+      <c r="F13" s="38">
+        <f t="shared" si="5"/>
+        <v>2.0003662109375</v>
+      </c>
+      <c r="G13" s="39">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H13" s="39">
         <f t="shared" si="8"/>
-        <v>98</v>
-      </c>
-      <c r="C13" s="34">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666652E-2</v>
-      </c>
-      <c r="D13" s="40">
-        <f t="shared" si="3"/>
-        <v>97.9998779296875</v>
-      </c>
-      <c r="E13" s="40">
-        <f t="shared" si="4"/>
-        <v>2.0001220703125</v>
-      </c>
-      <c r="F13" s="40">
-        <f>((1-cred) * E12) + (cred * PiT)</f>
-        <v>2.000244140625</v>
-      </c>
-      <c r="G13" s="41">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H13" s="41">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="I13" s="41">
+        <v>4</v>
+      </c>
+      <c r="I13" s="39">
         <f t="shared" si="2"/>
-        <v>3.000030517578125</v>
+        <v>4.0000457763671875</v>
       </c>
       <c r="J13" s="3">
         <v>101</v>
       </c>
-      <c r="K13" s="49">
-        <f t="shared" si="6"/>
-        <v>6.6667829241071397E-2</v>
+      <c r="K13" s="47">
+        <f t="shared" si="7"/>
+        <v>7.619222005208337E-2</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="13" x14ac:dyDescent="0.25">
@@ -6229,43 +6219,43 @@
         <v>13</v>
       </c>
       <c r="B14" s="3">
+        <f t="shared" si="9"/>
+        <v>97</v>
+      </c>
+      <c r="C14" s="32">
+        <f t="shared" si="0"/>
+        <v>7.6190476190476142E-2</v>
+      </c>
+      <c r="D14" s="38">
+        <f t="shared" si="3"/>
+        <v>96.999954223632813</v>
+      </c>
+      <c r="E14" s="38">
+        <f t="shared" si="4"/>
+        <v>2.0000457763671875</v>
+      </c>
+      <c r="F14" s="38">
+        <f t="shared" si="5"/>
+        <v>2.000091552734375</v>
+      </c>
+      <c r="G14" s="39">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H14" s="39">
         <f t="shared" si="8"/>
-        <v>98</v>
-      </c>
-      <c r="C14" s="34">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666652E-2</v>
-      </c>
-      <c r="D14" s="40">
-        <f t="shared" si="3"/>
-        <v>97.999969482421875</v>
-      </c>
-      <c r="E14" s="40">
-        <f t="shared" si="4"/>
-        <v>2.000030517578125</v>
-      </c>
-      <c r="F14" s="40">
-        <f>((1-cred) * E13) + (cred * PiT)</f>
-        <v>2.00006103515625</v>
-      </c>
-      <c r="G14" s="41">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H14" s="41">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="I14" s="41">
+        <v>4</v>
+      </c>
+      <c r="I14" s="39">
         <f t="shared" si="2"/>
-        <v>3.0000076293945313</v>
+        <v>4.0000114440917969</v>
       </c>
       <c r="J14" s="3">
         <v>101</v>
       </c>
-      <c r="K14" s="49">
-        <f t="shared" si="6"/>
-        <v>6.6666957310267838E-2</v>
+      <c r="K14" s="47">
+        <f t="shared" si="7"/>
+        <v>7.6190912155877921E-2</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="13" x14ac:dyDescent="0.25">
@@ -6273,46 +6263,46 @@
         <v>14</v>
       </c>
       <c r="B15" s="3">
+        <f t="shared" si="9"/>
+        <v>97</v>
+      </c>
+      <c r="C15" s="32">
+        <f t="shared" si="0"/>
+        <v>7.6190476190476142E-2</v>
+      </c>
+      <c r="D15" s="38">
+        <f t="shared" si="3"/>
+        <v>96.999988555908203</v>
+      </c>
+      <c r="E15" s="38">
+        <f t="shared" si="4"/>
+        <v>2.0000114440917969</v>
+      </c>
+      <c r="F15" s="38">
+        <f t="shared" si="5"/>
+        <v>2.0000228881835938</v>
+      </c>
+      <c r="G15" s="39">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H15" s="39">
         <f t="shared" si="8"/>
-        <v>98</v>
-      </c>
-      <c r="C15" s="34">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666652E-2</v>
-      </c>
-      <c r="D15" s="40">
-        <f t="shared" si="3"/>
-        <v>97.999992370605469</v>
-      </c>
-      <c r="E15" s="40">
-        <f t="shared" si="4"/>
-        <v>2.0000076293945313</v>
-      </c>
-      <c r="F15" s="40">
-        <f>((1-cred) * E14) + (cred * PiT)</f>
-        <v>2.0000152587890625</v>
-      </c>
-      <c r="G15" s="41">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H15" s="41">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="I15" s="41">
+        <v>4</v>
+      </c>
+      <c r="I15" s="39">
         <f t="shared" si="2"/>
-        <v>3.0000019073486328</v>
+        <v>4.0000028610229492</v>
       </c>
       <c r="J15" s="3">
         <v>101</v>
       </c>
-      <c r="K15" s="49">
-        <f t="shared" si="6"/>
-        <v>6.6666739327566948E-2</v>
-      </c>
-      <c r="M15" s="20"/>
-      <c r="N15" s="21" t="s">
+      <c r="K15" s="47">
+        <f t="shared" si="7"/>
+        <v>7.6190585181826642E-2</v>
+      </c>
+      <c r="M15" s="18"/>
+      <c r="N15" s="19" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6321,46 +6311,46 @@
         <v>15</v>
       </c>
       <c r="B16" s="3">
+        <f t="shared" si="9"/>
+        <v>97</v>
+      </c>
+      <c r="C16" s="32">
+        <f t="shared" si="0"/>
+        <v>7.6190476190476142E-2</v>
+      </c>
+      <c r="D16" s="38">
+        <f t="shared" si="3"/>
+        <v>96.999997138977051</v>
+      </c>
+      <c r="E16" s="38">
+        <f t="shared" si="4"/>
+        <v>2.0000028610229492</v>
+      </c>
+      <c r="F16" s="38">
+        <f t="shared" si="5"/>
+        <v>2.0000057220458984</v>
+      </c>
+      <c r="G16" s="39">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H16" s="39">
         <f t="shared" si="8"/>
-        <v>98</v>
-      </c>
-      <c r="C16" s="34">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666652E-2</v>
-      </c>
-      <c r="D16" s="40">
-        <f t="shared" si="3"/>
-        <v>97.999998092651367</v>
-      </c>
-      <c r="E16" s="40">
-        <f t="shared" si="4"/>
-        <v>2.0000019073486328</v>
-      </c>
-      <c r="F16" s="40">
-        <f>((1-cred) * E15) + (cred * PiT)</f>
-        <v>2.0000038146972656</v>
-      </c>
-      <c r="G16" s="41">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H16" s="41">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="I16" s="41">
+        <v>4</v>
+      </c>
+      <c r="I16" s="39">
         <f t="shared" si="2"/>
-        <v>3.0000004768371582</v>
+        <v>4.0000007152557373</v>
       </c>
       <c r="J16" s="3">
         <v>101</v>
       </c>
-      <c r="K16" s="49">
-        <f t="shared" si="6"/>
-        <v>6.6666684831891754E-2</v>
-      </c>
-      <c r="M16" s="22"/>
-      <c r="N16" s="21" t="s">
+      <c r="K16" s="47">
+        <f t="shared" si="7"/>
+        <v>7.6190503438313795E-2</v>
+      </c>
+      <c r="M16" s="20"/>
+      <c r="N16" s="19" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6369,46 +6359,46 @@
         <v>16</v>
       </c>
       <c r="B17" s="3">
+        <f t="shared" si="9"/>
+        <v>97</v>
+      </c>
+      <c r="C17" s="32">
+        <f t="shared" si="0"/>
+        <v>7.6190476190476142E-2</v>
+      </c>
+      <c r="D17" s="38">
+        <f t="shared" si="3"/>
+        <v>96.999999284744263</v>
+      </c>
+      <c r="E17" s="38">
+        <f t="shared" si="4"/>
+        <v>2.0000007152557373</v>
+      </c>
+      <c r="F17" s="38">
+        <f t="shared" si="5"/>
+        <v>2.0000014305114746</v>
+      </c>
+      <c r="G17" s="39">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H17" s="39">
         <f t="shared" si="8"/>
-        <v>98</v>
-      </c>
-      <c r="C17" s="34">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666652E-2</v>
-      </c>
-      <c r="D17" s="40">
-        <f t="shared" si="3"/>
-        <v>97.999999523162842</v>
-      </c>
-      <c r="E17" s="40">
-        <f t="shared" si="4"/>
-        <v>2.0000004768371582</v>
-      </c>
-      <c r="F17" s="40">
-        <f>((1-cred) * E16) + (cred * PiT)</f>
-        <v>2.0000009536743164</v>
-      </c>
-      <c r="G17" s="41">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H17" s="41">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="I17" s="41">
+        <v>4</v>
+      </c>
+      <c r="I17" s="39">
         <f t="shared" si="2"/>
-        <v>3.0000001192092896</v>
+        <v>4.0000001788139343</v>
       </c>
       <c r="J17" s="3">
         <v>101</v>
       </c>
-      <c r="K17" s="49">
-        <f t="shared" si="6"/>
-        <v>6.6666671207972983E-2</v>
-      </c>
-      <c r="M17" s="12"/>
-      <c r="N17" s="21" t="s">
+      <c r="K17" s="47">
+        <f t="shared" si="7"/>
+        <v>7.6190483002435583E-2</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c r="N17" s="19" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6417,46 +6407,46 @@
         <v>17</v>
       </c>
       <c r="B18" s="3">
+        <f t="shared" si="9"/>
+        <v>97</v>
+      </c>
+      <c r="C18" s="32">
+        <f t="shared" si="0"/>
+        <v>7.6190476190476142E-2</v>
+      </c>
+      <c r="D18" s="38">
+        <f t="shared" si="3"/>
+        <v>96.999999821186066</v>
+      </c>
+      <c r="E18" s="38">
+        <f t="shared" si="4"/>
+        <v>2.0000001788139343</v>
+      </c>
+      <c r="F18" s="38">
+        <f t="shared" si="5"/>
+        <v>2.0000003576278687</v>
+      </c>
+      <c r="G18" s="39">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H18" s="39">
         <f t="shared" si="8"/>
-        <v>98</v>
-      </c>
-      <c r="C18" s="34">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666652E-2</v>
-      </c>
-      <c r="D18" s="40">
-        <f t="shared" si="3"/>
-        <v>97.99999988079071</v>
-      </c>
-      <c r="E18" s="40">
-        <f t="shared" si="4"/>
-        <v>2.0000001192092896</v>
-      </c>
-      <c r="F18" s="40">
-        <f>((1-cred) * E17) + (cred * PiT)</f>
-        <v>2.0000002384185791</v>
-      </c>
-      <c r="G18" s="41">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H18" s="41">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="I18" s="41">
+        <v>4</v>
+      </c>
+      <c r="I18" s="39">
         <f t="shared" si="2"/>
-        <v>3.0000000298023224</v>
+        <v>4.0000000447034836</v>
       </c>
       <c r="J18" s="3">
         <v>101</v>
       </c>
-      <c r="K18" s="49">
-        <f t="shared" si="6"/>
-        <v>6.6666667801993262E-2</v>
-      </c>
-      <c r="M18" s="8"/>
-      <c r="N18" s="21" t="s">
+      <c r="K18" s="47">
+        <f t="shared" si="7"/>
+        <v>7.6190477893466002E-2</v>
+      </c>
+      <c r="M18" s="6"/>
+      <c r="N18" s="19" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6465,46 +6455,46 @@
         <v>18</v>
       </c>
       <c r="B19" s="3">
+        <f t="shared" si="9"/>
+        <v>97</v>
+      </c>
+      <c r="C19" s="32">
+        <f t="shared" si="0"/>
+        <v>7.6190476190476142E-2</v>
+      </c>
+      <c r="D19" s="38">
+        <f t="shared" si="3"/>
+        <v>96.999999955296516</v>
+      </c>
+      <c r="E19" s="38">
+        <f t="shared" si="4"/>
+        <v>2.0000000447034836</v>
+      </c>
+      <c r="F19" s="38">
+        <f t="shared" si="5"/>
+        <v>2.0000000894069672</v>
+      </c>
+      <c r="G19" s="39">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H19" s="39">
         <f t="shared" si="8"/>
-        <v>98</v>
-      </c>
-      <c r="C19" s="34">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666652E-2</v>
-      </c>
-      <c r="D19" s="40">
-        <f t="shared" si="3"/>
-        <v>97.999999970197678</v>
-      </c>
-      <c r="E19" s="40">
-        <f t="shared" si="4"/>
-        <v>2.0000000298023224</v>
-      </c>
-      <c r="F19" s="40">
-        <f>((1-cred) * E18) + (cred * PiT)</f>
-        <v>2.0000000596046448</v>
-      </c>
-      <c r="G19" s="41">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H19" s="41">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="I19" s="41">
+        <v>4</v>
+      </c>
+      <c r="I19" s="39">
         <f t="shared" si="2"/>
-        <v>3.0000000074505806</v>
+        <v>4.0000000111758709</v>
       </c>
       <c r="J19" s="3">
         <v>101</v>
       </c>
-      <c r="K19" s="49">
-        <f t="shared" si="6"/>
-        <v>6.6666666950498277E-2</v>
-      </c>
-      <c r="M19" s="24"/>
-      <c r="N19" s="21" t="s">
+      <c r="K19" s="47">
+        <f t="shared" si="7"/>
+        <v>7.619047661622369E-2</v>
+      </c>
+      <c r="M19" s="22"/>
+      <c r="N19" s="19" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6513,88 +6503,88 @@
         <v>19</v>
       </c>
       <c r="B20" s="3">
+        <f t="shared" si="9"/>
+        <v>97</v>
+      </c>
+      <c r="C20" s="32">
+        <f t="shared" si="0"/>
+        <v>7.6190476190476142E-2</v>
+      </c>
+      <c r="D20" s="38">
+        <f t="shared" si="3"/>
+        <v>96.999999988824129</v>
+      </c>
+      <c r="E20" s="38">
+        <f t="shared" si="4"/>
+        <v>2.0000000111758709</v>
+      </c>
+      <c r="F20" s="38">
+        <f t="shared" si="5"/>
+        <v>2.0000000223517418</v>
+      </c>
+      <c r="G20" s="39">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H20" s="39">
         <f t="shared" si="8"/>
-        <v>98</v>
-      </c>
-      <c r="C20" s="34">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666652E-2</v>
-      </c>
-      <c r="D20" s="40">
-        <f t="shared" si="3"/>
-        <v>97.999999992549419</v>
-      </c>
-      <c r="E20" s="40">
-        <f t="shared" si="4"/>
-        <v>2.0000000074505806</v>
-      </c>
-      <c r="F20" s="40">
-        <f>((1-cred) * E19) + (cred * PiT)</f>
-        <v>2.0000000149011612</v>
-      </c>
-      <c r="G20" s="41">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H20" s="41">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="I20" s="41">
+        <v>4</v>
+      </c>
+      <c r="I20" s="39">
         <f t="shared" si="2"/>
-        <v>3.0000000018626451</v>
+        <v>4.0000000027939677</v>
       </c>
       <c r="J20" s="3">
         <v>101</v>
       </c>
-      <c r="K20" s="49">
-        <f t="shared" si="6"/>
-        <v>6.6666666737624558E-2</v>
-      </c>
-      <c r="M20" s="35"/>
+      <c r="K20" s="47">
+        <f t="shared" si="7"/>
+        <v>7.6190476296913001E-2</v>
+      </c>
+      <c r="M20" s="33"/>
     </row>
     <row r="21" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="3">
+        <f t="shared" si="9"/>
+        <v>97</v>
+      </c>
+      <c r="C21" s="32">
+        <f t="shared" si="0"/>
+        <v>7.6190476190476142E-2</v>
+      </c>
+      <c r="D21" s="38">
+        <f t="shared" si="3"/>
+        <v>96.999999997206032</v>
+      </c>
+      <c r="E21" s="38">
+        <f t="shared" si="4"/>
+        <v>2.0000000027939677</v>
+      </c>
+      <c r="F21" s="38">
+        <f t="shared" si="5"/>
+        <v>2.0000000055879354</v>
+      </c>
+      <c r="G21" s="39">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H21" s="39">
         <f t="shared" si="8"/>
-        <v>98</v>
-      </c>
-      <c r="C21" s="34">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666652E-2</v>
-      </c>
-      <c r="D21" s="40">
-        <f t="shared" si="3"/>
-        <v>97.999999998137355</v>
-      </c>
-      <c r="E21" s="40">
-        <f t="shared" si="4"/>
-        <v>2.0000000018626451</v>
-      </c>
-      <c r="F21" s="40">
-        <f>((1-cred) * E20) + (cred * PiT)</f>
-        <v>2.0000000037252903</v>
-      </c>
-      <c r="G21" s="41">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H21" s="41">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="I21" s="41">
+        <v>4</v>
+      </c>
+      <c r="I21" s="39">
         <f t="shared" si="2"/>
-        <v>3.0000000004656613</v>
+        <v>4.0000000006984919</v>
       </c>
       <c r="J21" s="3">
         <v>101</v>
       </c>
-      <c r="K21" s="49">
-        <f t="shared" si="6"/>
-        <v>6.6666666684406128E-2</v>
+      <c r="K21" s="47">
+        <f t="shared" si="7"/>
+        <v>7.6190476217085412E-2</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="13" x14ac:dyDescent="0.25">
@@ -6602,43 +6592,43 @@
         <v>21</v>
       </c>
       <c r="B22" s="3">
+        <f t="shared" si="9"/>
+        <v>97</v>
+      </c>
+      <c r="C22" s="32">
+        <f t="shared" si="0"/>
+        <v>7.6190476190476142E-2</v>
+      </c>
+      <c r="D22" s="38">
+        <f t="shared" si="3"/>
+        <v>96.999999999301508</v>
+      </c>
+      <c r="E22" s="38">
+        <f t="shared" si="4"/>
+        <v>2.0000000006984919</v>
+      </c>
+      <c r="F22" s="38">
+        <f t="shared" si="5"/>
+        <v>2.0000000013969839</v>
+      </c>
+      <c r="G22" s="39">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H22" s="39">
         <f t="shared" si="8"/>
-        <v>98</v>
-      </c>
-      <c r="C22" s="34">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666652E-2</v>
-      </c>
-      <c r="D22" s="40">
-        <f t="shared" si="3"/>
-        <v>97.999999999534339</v>
-      </c>
-      <c r="E22" s="40">
-        <f t="shared" si="4"/>
-        <v>2.0000000004656613</v>
-      </c>
-      <c r="F22" s="40">
-        <f>((1-cred) * E21) + (cred * PiT)</f>
-        <v>2.0000000009313226</v>
-      </c>
-      <c r="G22" s="41">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H22" s="41">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="I22" s="41">
+        <v>4</v>
+      </c>
+      <c r="I22" s="39">
         <f t="shared" si="2"/>
-        <v>3.0000000001164153</v>
+        <v>4.000000000174623</v>
       </c>
       <c r="J22" s="3">
         <v>101</v>
       </c>
-      <c r="K22" s="49">
-        <f t="shared" si="6"/>
-        <v>6.6666666671101549E-2</v>
+      <c r="K22" s="47">
+        <f t="shared" si="7"/>
+        <v>7.6190476197128487E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="13" x14ac:dyDescent="0.25">
@@ -6646,43 +6636,43 @@
         <v>22</v>
       </c>
       <c r="B23" s="3">
+        <f t="shared" si="9"/>
+        <v>97</v>
+      </c>
+      <c r="C23" s="32">
+        <f t="shared" si="0"/>
+        <v>7.6190476190476142E-2</v>
+      </c>
+      <c r="D23" s="38">
+        <f t="shared" si="3"/>
+        <v>96.999999999825377</v>
+      </c>
+      <c r="E23" s="38">
+        <f t="shared" si="4"/>
+        <v>2.000000000174623</v>
+      </c>
+      <c r="F23" s="38">
+        <f t="shared" si="5"/>
+        <v>2.000000000349246</v>
+      </c>
+      <c r="G23" s="39">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H23" s="39">
         <f t="shared" si="8"/>
-        <v>98</v>
-      </c>
-      <c r="C23" s="34">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666652E-2</v>
-      </c>
-      <c r="D23" s="40">
-        <f t="shared" si="3"/>
-        <v>97.999999999883585</v>
-      </c>
-      <c r="E23" s="40">
-        <f t="shared" si="4"/>
-        <v>2.0000000001164153</v>
-      </c>
-      <c r="F23" s="40">
-        <f>((1-cred) * E22) + (cred * PiT)</f>
-        <v>2.0000000002328306</v>
-      </c>
-      <c r="G23" s="41">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H23" s="41">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="I23" s="41">
+        <v>4</v>
+      </c>
+      <c r="I23" s="39">
         <f t="shared" si="2"/>
-        <v>3.0000000000291038</v>
+        <v>4.0000000000436557</v>
       </c>
       <c r="J23" s="3">
         <v>101</v>
       </c>
-      <c r="K23" s="49">
-        <f t="shared" si="6"/>
-        <v>6.6666666667775432E-2</v>
+      <c r="K23" s="47">
+        <f t="shared" si="7"/>
+        <v>7.6190476192139256E-2</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="13" x14ac:dyDescent="0.25">
@@ -6690,43 +6680,43 @@
         <v>23</v>
       </c>
       <c r="B24" s="3">
+        <f t="shared" si="9"/>
+        <v>97</v>
+      </c>
+      <c r="C24" s="32">
+        <f t="shared" si="0"/>
+        <v>7.6190476190476142E-2</v>
+      </c>
+      <c r="D24" s="38">
+        <f t="shared" si="3"/>
+        <v>96.999999999956344</v>
+      </c>
+      <c r="E24" s="38">
+        <f t="shared" si="4"/>
+        <v>2.0000000000436557</v>
+      </c>
+      <c r="F24" s="38">
+        <f t="shared" si="5"/>
+        <v>2.0000000000873115</v>
+      </c>
+      <c r="G24" s="39">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H24" s="39">
         <f t="shared" si="8"/>
-        <v>98</v>
-      </c>
-      <c r="C24" s="34">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666652E-2</v>
-      </c>
-      <c r="D24" s="40">
-        <f t="shared" si="3"/>
-        <v>97.999999999970896</v>
-      </c>
-      <c r="E24" s="40">
-        <f t="shared" si="4"/>
-        <v>2.0000000000291038</v>
-      </c>
-      <c r="F24" s="40">
-        <f>((1-cred) * E23) + (cred * PiT)</f>
-        <v>2.0000000000582077</v>
-      </c>
-      <c r="G24" s="41">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H24" s="41">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="I24" s="41">
+        <v>4</v>
+      </c>
+      <c r="I24" s="39">
         <f t="shared" si="2"/>
-        <v>3.000000000007276</v>
+        <v>4.0000000000109139</v>
       </c>
       <c r="J24" s="3">
         <v>101</v>
       </c>
-      <c r="K24" s="49">
-        <f t="shared" si="6"/>
-        <v>6.6666666666943875E-2</v>
+      <c r="K24" s="47">
+        <f t="shared" si="7"/>
+        <v>7.619047619089192E-2</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="13" x14ac:dyDescent="0.25">
@@ -6734,43 +6724,43 @@
         <v>24</v>
       </c>
       <c r="B25" s="3">
+        <f t="shared" si="9"/>
+        <v>97</v>
+      </c>
+      <c r="C25" s="32">
+        <f t="shared" si="0"/>
+        <v>7.6190476190476142E-2</v>
+      </c>
+      <c r="D25" s="38">
+        <f t="shared" si="3"/>
+        <v>96.999999999989086</v>
+      </c>
+      <c r="E25" s="38">
+        <f t="shared" si="4"/>
+        <v>2.0000000000109139</v>
+      </c>
+      <c r="F25" s="38">
+        <f t="shared" si="5"/>
+        <v>2.0000000000218279</v>
+      </c>
+      <c r="G25" s="39">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H25" s="39">
         <f t="shared" si="8"/>
-        <v>98</v>
-      </c>
-      <c r="C25" s="34">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666652E-2</v>
-      </c>
-      <c r="D25" s="40">
-        <f t="shared" si="3"/>
-        <v>97.999999999992724</v>
-      </c>
-      <c r="E25" s="40">
-        <f t="shared" si="4"/>
-        <v>2.000000000007276</v>
-      </c>
-      <c r="F25" s="40">
-        <f>((1-cred) * E24) + (cred * PiT)</f>
-        <v>2.0000000000145519</v>
-      </c>
-      <c r="G25" s="41">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H25" s="41">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="I25" s="41">
+        <v>4</v>
+      </c>
+      <c r="I25" s="39">
         <f t="shared" si="2"/>
-        <v>3.000000000001819</v>
+        <v>4.0000000000027285</v>
       </c>
       <c r="J25" s="3">
         <v>101</v>
       </c>
-      <c r="K25" s="49">
-        <f t="shared" si="6"/>
-        <v>6.666666666673593E-2</v>
+      <c r="K25" s="47">
+        <f t="shared" si="7"/>
+        <v>7.619047619058017E-2</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="13" x14ac:dyDescent="0.25">
@@ -6778,43 +6768,43 @@
         <v>25</v>
       </c>
       <c r="B26" s="3">
+        <f t="shared" si="9"/>
+        <v>97</v>
+      </c>
+      <c r="C26" s="32">
+        <f t="shared" si="0"/>
+        <v>7.6190476190476142E-2</v>
+      </c>
+      <c r="D26" s="38">
+        <f t="shared" si="3"/>
+        <v>96.999999999997272</v>
+      </c>
+      <c r="E26" s="38">
+        <f t="shared" si="4"/>
+        <v>2.0000000000027285</v>
+      </c>
+      <c r="F26" s="38">
+        <f t="shared" si="5"/>
+        <v>2.000000000005457</v>
+      </c>
+      <c r="G26" s="39">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H26" s="39">
         <f t="shared" si="8"/>
-        <v>98</v>
-      </c>
-      <c r="C26" s="34">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666652E-2</v>
-      </c>
-      <c r="D26" s="40">
-        <f t="shared" si="3"/>
-        <v>97.999999999998181</v>
-      </c>
-      <c r="E26" s="40">
-        <f t="shared" si="4"/>
-        <v>2.000000000001819</v>
-      </c>
-      <c r="F26" s="40">
-        <f>((1-cred) * E25) + (cred * PiT)</f>
-        <v>2.000000000003638</v>
-      </c>
-      <c r="G26" s="41">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H26" s="41">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="I26" s="41">
+        <v>4</v>
+      </c>
+      <c r="I26" s="39">
         <f t="shared" si="2"/>
-        <v>3.0000000000004547</v>
+        <v>4.0000000000006821</v>
       </c>
       <c r="J26" s="3">
         <v>101</v>
       </c>
-      <c r="K26" s="49">
-        <f t="shared" si="6"/>
-        <v>6.6666666666683971E-2</v>
+      <c r="K26" s="47">
+        <f t="shared" si="7"/>
+        <v>7.6190476190502121E-2</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="13" x14ac:dyDescent="0.25">
@@ -6822,43 +6812,43 @@
         <v>26</v>
       </c>
       <c r="B27" s="3">
+        <f t="shared" si="9"/>
+        <v>97</v>
+      </c>
+      <c r="C27" s="32">
+        <f t="shared" si="0"/>
+        <v>7.6190476190476142E-2</v>
+      </c>
+      <c r="D27" s="38">
+        <f t="shared" si="3"/>
+        <v>96.999999999999318</v>
+      </c>
+      <c r="E27" s="38">
+        <f t="shared" si="4"/>
+        <v>2.0000000000006821</v>
+      </c>
+      <c r="F27" s="38">
+        <f t="shared" si="5"/>
+        <v>2.0000000000013642</v>
+      </c>
+      <c r="G27" s="39">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H27" s="39">
         <f t="shared" si="8"/>
-        <v>98</v>
-      </c>
-      <c r="C27" s="34">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666652E-2</v>
-      </c>
-      <c r="D27" s="40">
-        <f t="shared" si="3"/>
-        <v>97.999999999999545</v>
-      </c>
-      <c r="E27" s="40">
-        <f t="shared" si="4"/>
-        <v>2.0000000000004547</v>
-      </c>
-      <c r="F27" s="40">
-        <f>((1-cred) * E26) + (cred * PiT)</f>
-        <v>2.0000000000009095</v>
-      </c>
-      <c r="G27" s="41">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H27" s="41">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="I27" s="41">
+        <v>4</v>
+      </c>
+      <c r="I27" s="39">
         <f t="shared" si="2"/>
-        <v>3.0000000000001137</v>
+        <v>4.0000000000001705</v>
       </c>
       <c r="J27" s="3">
         <v>101</v>
       </c>
-      <c r="K27" s="49">
-        <f t="shared" si="6"/>
-        <v>6.6666666666670982E-2</v>
+      <c r="K27" s="47">
+        <f t="shared" si="7"/>
+        <v>7.6190476190482692E-2</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="13" x14ac:dyDescent="0.25">
@@ -6866,43 +6856,43 @@
         <v>27</v>
       </c>
       <c r="B28" s="3">
+        <f t="shared" si="9"/>
+        <v>97</v>
+      </c>
+      <c r="C28" s="32">
+        <f t="shared" si="0"/>
+        <v>7.6190476190476142E-2</v>
+      </c>
+      <c r="D28" s="38">
+        <f t="shared" si="3"/>
+        <v>96.999999999999829</v>
+      </c>
+      <c r="E28" s="38">
+        <f t="shared" si="4"/>
+        <v>2.0000000000001705</v>
+      </c>
+      <c r="F28" s="38">
+        <f t="shared" si="5"/>
+        <v>2.0000000000003411</v>
+      </c>
+      <c r="G28" s="39">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H28" s="39">
         <f t="shared" si="8"/>
-        <v>98</v>
-      </c>
-      <c r="C28" s="34">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666652E-2</v>
-      </c>
-      <c r="D28" s="40">
-        <f t="shared" si="3"/>
-        <v>97.999999999999886</v>
-      </c>
-      <c r="E28" s="40">
-        <f t="shared" si="4"/>
-        <v>2.0000000000001137</v>
-      </c>
-      <c r="F28" s="40">
-        <f>((1-cred) * E27) + (cred * PiT)</f>
-        <v>2.0000000000002274</v>
-      </c>
-      <c r="G28" s="41">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H28" s="41">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="I28" s="41">
+        <v>4</v>
+      </c>
+      <c r="I28" s="39">
         <f t="shared" si="2"/>
-        <v>3.0000000000000284</v>
+        <v>4.0000000000000426</v>
       </c>
       <c r="J28" s="3">
         <v>101</v>
       </c>
-      <c r="K28" s="49">
-        <f t="shared" si="6"/>
-        <v>6.6666666666667762E-2</v>
+      <c r="K28" s="47">
+        <f t="shared" si="7"/>
+        <v>7.6190476190477807E-2</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="13" x14ac:dyDescent="0.25">
@@ -6910,43 +6900,43 @@
         <v>28</v>
       </c>
       <c r="B29" s="3">
+        <f t="shared" si="9"/>
+        <v>97</v>
+      </c>
+      <c r="C29" s="32">
+        <f t="shared" si="0"/>
+        <v>7.6190476190476142E-2</v>
+      </c>
+      <c r="D29" s="38">
+        <f t="shared" si="3"/>
+        <v>96.999999999999957</v>
+      </c>
+      <c r="E29" s="38">
+        <f t="shared" si="4"/>
+        <v>2.0000000000000426</v>
+      </c>
+      <c r="F29" s="38">
+        <f t="shared" si="5"/>
+        <v>2.0000000000000853</v>
+      </c>
+      <c r="G29" s="39">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H29" s="39">
         <f t="shared" si="8"/>
-        <v>98</v>
-      </c>
-      <c r="C29" s="34">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666652E-2</v>
-      </c>
-      <c r="D29" s="40">
-        <f t="shared" si="3"/>
-        <v>97.999999999999972</v>
-      </c>
-      <c r="E29" s="40">
-        <f t="shared" si="4"/>
-        <v>2.0000000000000284</v>
-      </c>
-      <c r="F29" s="40">
-        <f>((1-cred) * E28) + (cred * PiT)</f>
-        <v>2.0000000000000568</v>
-      </c>
-      <c r="G29" s="41">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H29" s="41">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="I29" s="41">
+        <v>4</v>
+      </c>
+      <c r="I29" s="39">
         <f t="shared" si="2"/>
-        <v>3.0000000000000071</v>
+        <v>4.0000000000000107</v>
       </c>
       <c r="J29" s="3">
         <v>101</v>
       </c>
-      <c r="K29" s="49">
-        <f t="shared" si="6"/>
-        <v>6.6666666666666985E-2</v>
+      <c r="K29" s="47">
+        <f t="shared" si="7"/>
+        <v>7.6190476190476586E-2</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="13" x14ac:dyDescent="0.25">
@@ -6954,87 +6944,87 @@
         <v>29</v>
       </c>
       <c r="B30" s="3">
+        <f t="shared" si="9"/>
+        <v>97</v>
+      </c>
+      <c r="C30" s="32">
+        <f t="shared" si="0"/>
+        <v>7.6190476190476142E-2</v>
+      </c>
+      <c r="D30" s="38">
+        <f t="shared" si="3"/>
+        <v>96.999999999999986</v>
+      </c>
+      <c r="E30" s="38">
+        <f t="shared" si="4"/>
+        <v>2.0000000000000071</v>
+      </c>
+      <c r="F30" s="38">
+        <f t="shared" si="5"/>
+        <v>2.0000000000000213</v>
+      </c>
+      <c r="G30" s="39">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H30" s="39">
         <f t="shared" si="8"/>
-        <v>98</v>
-      </c>
-      <c r="C30" s="34">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666652E-2</v>
-      </c>
-      <c r="D30" s="40">
-        <f t="shared" si="3"/>
-        <v>98</v>
-      </c>
-      <c r="E30" s="40">
-        <f t="shared" si="4"/>
-        <v>2.0000000000000142</v>
-      </c>
-      <c r="F30" s="40">
-        <f>((1-cred) * E29) + (cred * PiT)</f>
-        <v>2.0000000000000142</v>
-      </c>
-      <c r="G30" s="41">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H30" s="41">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="I30" s="41">
+        <v>4</v>
+      </c>
+      <c r="I30" s="39">
         <f t="shared" si="2"/>
-        <v>3.0000000000000071</v>
+        <v>4.0000000000000036</v>
       </c>
       <c r="J30" s="3">
         <v>101</v>
       </c>
-      <c r="K30" s="49">
-        <f t="shared" si="6"/>
-        <v>6.6666666666666652E-2</v>
+      <c r="K30" s="47">
+        <f t="shared" si="7"/>
+        <v>7.6190476190476364E-2</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="13" x14ac:dyDescent="0.25">
-      <c r="A31" s="23">
+      <c r="A31" s="21">
         <v>30</v>
       </c>
-      <c r="B31" s="24">
-        <f t="shared" si="8"/>
-        <v>98</v>
-      </c>
-      <c r="C31" s="24">
+      <c r="B31" s="22">
+        <f t="shared" si="9"/>
+        <v>97</v>
+      </c>
+      <c r="C31" s="22">
         <f t="shared" si="0"/>
-        <v>6.6666666666666652E-2</v>
-      </c>
-      <c r="D31" s="42">
+        <v>7.6190476190476142E-2</v>
+      </c>
+      <c r="D31" s="40">
         <f t="shared" si="3"/>
-        <v>98</v>
-      </c>
-      <c r="E31" s="42">
+        <v>97</v>
+      </c>
+      <c r="E31" s="40">
         <f t="shared" si="4"/>
-        <v>2.0000000000000142</v>
-      </c>
-      <c r="F31" s="42">
-        <f t="shared" ref="F4:F31" si="9">E30</f>
-        <v>2.0000000000000142</v>
-      </c>
-      <c r="G31" s="42">
+        <v>2.0000000000000071</v>
+      </c>
+      <c r="F31" s="40">
+        <f t="shared" ref="F31" si="10">E30</f>
+        <v>2.0000000000000071</v>
+      </c>
+      <c r="G31" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H31" s="42">
-        <f t="shared" si="7"/>
+      <c r="H31" s="40">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I31" s="42">
+      <c r="I31" s="40">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="J31" s="30">
+      <c r="J31" s="28">
         <v>101</v>
       </c>
-      <c r="K31" s="46">
-        <f t="shared" si="6"/>
-        <v>6.6666666666666652E-2</v>
+      <c r="K31" s="44">
+        <f t="shared" si="7"/>
+        <v>7.6190476190476142E-2</v>
       </c>
     </row>
   </sheetData>
@@ -7052,6 +7042,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100D897F54A68A3164C93C6FE86A0526FD5" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="565997d87c69f593cb2c281e03458f4d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="257c3152-8465-41ed-81ee-47c7252cb94f" xmlns:ns4="5de22d24-e901-46b7-8fc4-2fa0387c7846" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="75c74a18142895fe466f18bbd5981347" ns3:_="" ns4:_="">
     <xsd:import namespace="257c3152-8465-41ed-81ee-47c7252cb94f"/>
@@ -7236,15 +7235,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7DC000E-F1EA-408A-95FA-5599BA3B3E93}">
   <ds:schemaRefs>
@@ -7263,6 +7253,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{375B70F6-F84B-414B-9066-D51A38C1273B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C76B5ED8-189A-4135-BB2B-51960E3EDCF2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7279,12 +7277,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{375B70F6-F84B-414B-9066-D51A38C1273B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>